--- a/classification/droptc/bert-base-uncased/unfreeze/14298463/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/unfreeze/14298463/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9914104342460632</v>
+        <v>0.9982272982597351</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986180067062378</v>
+        <v>0.9982738494873047</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.976655900478363</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9245094060897827</v>
+        <v>0.9982343912124634</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9802968502044678</v>
+        <v>0.9963300824165344</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9891324639320374</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.792394757270813</v>
+        <v>0.9922829270362854</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986017346382141</v>
+        <v>0.9975681900978088</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986627101898193</v>
+        <v>0.9981083869934082</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998690664768219</v>
+        <v>0.9891646504402161</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9680993556976318</v>
+        <v>0.9979774355888367</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9975366592407227</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9986661672592163</v>
+        <v>0.9822108149528503</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9980154037475586</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9817076921463013</v>
+        <v>0.9981527924537659</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9986017346382141</v>
+        <v>0.9982559084892273</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9900622367858887</v>
+        <v>0.7570360898971558</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9973905682563782</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9891570806503296</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986616373062134</v>
+        <v>0.9971820116043091</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9883335828781128</v>
+        <v>0.9896211624145508</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9903867840766907</v>
+        <v>0.9005309343338013</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.998688280582428</v>
+        <v>0.9981817007064819</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9865267872810364</v>
+        <v>0.9982454776763916</v>
       </c>
     </row>
     <row r="26">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9648177623748779</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9986650943756104</v>
+        <v>0.9273499250411987</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9986490607261658</v>
+        <v>0.9982201457023621</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.9981902241706848</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.893652617931366</v>
+        <v>0.9978476762771606</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9892615079879761</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9986752867698669</v>
+        <v>0.9977217316627502</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9986745119094849</v>
+        <v>0.9982744455337524</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9981451034545898</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9982707500457764</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9986104965209961</v>
+        <v>0.6942046284675598</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8876045942306519</v>
+        <v>0.9982118606567383</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.997154712677002</v>
+        <v>0.9982206225395203</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984661340713501</v>
+        <v>0.996820330619812</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9986091256141663</v>
+        <v>0.871063768863678</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9772778153419495</v>
+        <v>0.9983003735542297</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9254843592643738</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9850766062736511</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9964284300804138</v>
+        <v>0.8923589587211609</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9985836744308472</v>
+        <v>0.9864223599433899</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9986644983291626</v>
+        <v>0.9891570806503296</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9986473917961121</v>
+        <v>0.9976170063018799</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9984466433525085</v>
+        <v>0.9982858300209045</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9869994521141052</v>
+        <v>0.9983067512512207</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9984517097473145</v>
+        <v>0.9980121850967407</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9981424808502197</v>
+        <v>0.895411491394043</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9986345171928406</v>
+        <v>0.9983348250389099</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4987456202507019</v>
+        <v>0.9981902241706848</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.998625636100769</v>
+        <v>0.9982801675796509</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.978146493434906</v>
+        <v>0.9982131719589233</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9986369013786316</v>
+        <v>0.8635998368263245</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9983685612678528</v>
+        <v>0.9983032941818237</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9806370735168457</v>
+        <v>0.9833506941795349</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986298084259033</v>
+        <v>0.9612960815429688</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9888114929199219</v>
+        <v>0.9981344938278198</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9981790781021118</v>
+        <v>0.6398663520812988</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9968308806419373</v>
+        <v>0.9799903035163879</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9901992082595825</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.7412776350975037</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9917140007019043</v>
+        <v>0.8473650217056274</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9978020787239075</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.4595645368099213</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9796128273010254</v>
+        <v>0.9695023894309998</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.987873375415802</v>
+        <v>0.9983383417129517</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9986357092857361</v>
+        <v>0.9847159385681152</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9986397624015808</v>
+        <v>0.9597094058990479</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9695037603378296</v>
+        <v>0.9978511333465576</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9986722469329834</v>
+        <v>0.989452600479126</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.923475444316864</v>
+        <v>0.9971181154251099</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985998272895813</v>
+        <v>0.7746982574462891</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9986641407012939</v>
+        <v>0.9982821941375732</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9986695051193237</v>
+        <v>0.9946803450584412</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9986868500709534</v>
+        <v>0.9974545836448669</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9984617233276367</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9900352358818054</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9983834028244019</v>
+        <v>0.9982524514198303</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.815871000289917</v>
+        <v>0.9981897473335266</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.979302704334259</v>
+        <v>0.9966976642608643</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7900745868682861</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9909895658493042</v>
+        <v>0.9981065988540649</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9985974431037903</v>
+        <v>0.9982944130897522</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9675559997558594</v>
+        <v>0.998256504535675</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9986080527305603</v>
+        <v>0.9982012510299683</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.707490086555481</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9815881252288818</v>
       </c>
     </row>
     <row r="91">
@@ -2975,14 +2975,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9986697435379028</v>
+        <v>0.8506066799163818</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9754255414009094</v>
+        <v>0.9982926249504089</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9986891150474548</v>
+        <v>0.9979952573776245</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9986104965209961</v>
+        <v>0.9979879856109619</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9986215829849243</v>
+        <v>0.9979466795921326</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9842433929443359</v>
+        <v>0.9979212880134583</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9986220598220825</v>
+        <v>0.9951262474060059</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9986673593521118</v>
+        <v>0.9769462943077087</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9986080527305603</v>
+        <v>0.9975893497467041</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9984775185585022</v>
+        <v>0.9981168508529663</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9445475339889526</v>
+        <v>0.9847383499145508</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9980353713035583</v>
+        <v>0.9692910313606262</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8710297346115112</v>
+        <v>0.9973887801170349</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.9981440305709839</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.998648464679718</v>
+        <v>0.8417163491249084</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9980776309967041</v>
+        <v>0.9982395172119141</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9986481070518494</v>
+        <v>0.9914575219154358</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.986512303352356</v>
+        <v>0.8182494044303894</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9869994521141052</v>
+        <v>0.9699798822402954</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9604218602180481</v>
+        <v>0.9979074001312256</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9985087513923645</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9973887801170349</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9453259706497192</v>
+        <v>0.9880650639533997</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9055911898612976</v>
+        <v>0.9696976542472839</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.99782395362854</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.998647153377533</v>
+        <v>0.9981391429901123</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9980201721191406</v>
+        <v>0.9964919686317444</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9135065078735352</v>
+        <v>0.9898738861083984</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9795984625816345</v>
+        <v>0.9755363464355469</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9986453652381897</v>
+        <v>0.9364643692970276</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9986233711242676</v>
+        <v>0.9983235001564026</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9891095161437988</v>
+        <v>0.6165952086448669</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9722260236740112</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9986469149589539</v>
+        <v>0.926191508769989</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9907627701759338</v>
+        <v>0.9842527508735657</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9558355808258057</v>
+        <v>0.9894670844078064</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9971820116043091</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998494029045105</v>
+        <v>0.9976084232330322</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9859841465950012</v>
+        <v>0.9794207811355591</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9600968360900879</v>
+        <v>0.9795873165130615</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9739272594451904</v>
+        <v>0.9706491231918335</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9986773133277893</v>
+        <v>0.9982142448425293</v>
       </c>
     </row>
     <row r="133">
@@ -4151,14 +4151,14 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9987034797668457</v>
+        <v>0.9734861254692078</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.998521625995636</v>
+        <v>0.9898667335510254</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9986659288406372</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9739272594451904</v>
+        <v>0.995100200176239</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9784029722213745</v>
+        <v>0.7164014577865601</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9985417127609253</v>
+        <v>0.9982016086578369</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9986786246299744</v>
+        <v>0.998256504535675</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9902985692024231</v>
+        <v>0.989474892616272</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9986253976821899</v>
+        <v>0.9846162796020508</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9986799359321594</v>
+        <v>0.9982149600982666</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8851515054702759</v>
+        <v>0.9972898960113525</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9987009763717651</v>
+        <v>0.9979324340820312</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.990039050579071</v>
+        <v>0.9978641867637634</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9355720281600952</v>
+        <v>0.9950557947158813</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9917140007019043</v>
+        <v>0.9901992082595825</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9371896386146545</v>
+        <v>0.9834026098251343</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9882556200027466</v>
+        <v>0.9888495802879333</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9983618855476379</v>
+        <v>0.6908466815948486</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9983894824981689</v>
+        <v>0.9898738861083984</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9986875653266907</v>
+        <v>0.9835650324821472</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8893365263938904</v>
+        <v>0.9791529774665833</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5673152208328247</v>
+        <v>0.9816194772720337</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9979622364044189</v>
+        <v>0.9981297850608826</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9986671209335327</v>
+        <v>0.9981195330619812</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9983618855476379</v>
+        <v>0.9981912970542908</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9799630045890808</v>
+        <v>0.9975318908691406</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9984263181686401</v>
+        <v>0.9798570275306702</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9985333681106567</v>
+        <v>0.997805655002594</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9986791014671326</v>
+        <v>0.6400520801544189</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9986860156059265</v>
+        <v>0.997751772403717</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.998584508895874</v>
+        <v>0.9695023894309998</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9876359105110168</v>
+        <v>0.9898738861083984</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9986675977706909</v>
+        <v>0.9976443648338318</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9986760020256042</v>
+        <v>0.9981083869934082</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9754893779754639</v>
+        <v>0.9981871247291565</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9986739158630371</v>
+        <v>0.9979904890060425</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9817076921463013</v>
+        <v>0.9973579049110413</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8692193031311035</v>
+        <v>0.9833928942680359</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9986433386802673</v>
+        <v>0.9975036978721619</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.600614607334137</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9986922144889832</v>
+        <v>0.6618103384971619</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9981130361557007</v>
+        <v>0.9982143640518188</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9710644483566284</v>
+        <v>0.9978996515274048</v>
       </c>
     </row>
     <row r="177">
@@ -5383,14 +5383,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9985049962997437</v>
+        <v>0.8994351625442505</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9986379742622375</v>
+        <v>0.9895349144935608</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9986726045608521</v>
+        <v>0.9983258843421936</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.988395094871521</v>
+        <v>0.9974203109741211</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9985358715057373</v>
+        <v>0.9980760812759399</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9978274703025818</v>
+        <v>0.9977783560752869</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9917923212051392</v>
+        <v>0.989474892616272</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9894772171974182</v>
       </c>
     </row>
     <row r="185">
@@ -5607,14 +5607,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.998648464679718</v>
+        <v>0.8521811366081238</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4460901319980621</v>
+        <v>0.5743375420570374</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9985257983207703</v>
+        <v>0.9981108903884888</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986819624900818</v>
+        <v>0.6262935400009155</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9913617968559265</v>
+        <v>0.9747674465179443</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9863972067832947</v>
+        <v>0.9834026098251343</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9985658526420593</v>
+        <v>0.9857446551322937</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9917433857917786</v>
+        <v>0.8491374254226685</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9986234903335571</v>
+        <v>0.9982566237449646</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9917085766792297</v>
+        <v>0.9931668639183044</v>
       </c>
     </row>
     <row r="195">
@@ -5887,14 +5887,14 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7718795537948608</v>
+        <v>0.9983499050140381</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9986981153488159</v>
+        <v>0.9695085883140564</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.99853515625</v>
+        <v>0.9834026098251343</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9986887574195862</v>
+        <v>0.9870495200157166</v>
       </c>
     </row>
     <row r="199">
@@ -5999,14 +5999,14 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9726170301437378</v>
+        <v>0.9833506941795349</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9986145496368408</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.978762686252594</v>
+        <v>0.9895867109298706</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9986228942871094</v>
+        <v>0.9747674465179443</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9773485660552979</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9754893779754639</v>
+        <v>0.9773170351982117</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9986740350723267</v>
+        <v>0.9897733330726624</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9782286286354065</v>
+        <v>0.9982343912124634</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9620872139930725</v>
+        <v>0.989474892616272</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9987000226974487</v>
+        <v>0.9981083869934082</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9986490607261658</v>
+        <v>0.9955959916114807</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9983023405075073</v>
+        <v>0.9983339905738831</v>
       </c>
     </row>
   </sheetData>
